--- a/稽核/六盘水/仓库/礼炮汇总表.xlsx
+++ b/稽核/六盘水/仓库/礼炮汇总表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -957,11 +957,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20210124088</v>
+        <v>20210124094</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01:06</t>
+          <t>01:19</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -971,43 +971,43 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>纪梵希</t>
+          <t>V08</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>七部邓懿娜</t>
+          <t>二部安祖培</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>销-销售7部</t>
+          <t>销-销售2部</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20210124094</v>
+        <v>20210124088</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01:19</t>
+          <t>01:06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1017,33 +1017,33 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>V08</t>
+          <t>纪梵希</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>二部安祖培</t>
+          <t>七部邓懿娜</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>销-销售2部</t>
+          <t>销-销售7部</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L13" t="inlineStr"/>
     </row>
@@ -1456,10 +1456,10 @@
       <c r="J22" t="n">
         <v>25</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
         <v>100</v>
       </c>
-      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1502,10 +1502,10 @@
       <c r="J23" t="n">
         <v>25</v>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
+      <c r="K23" t="n">
         <v>100</v>
       </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1877,11 +1877,11 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>20210130071</v>
+        <v>20210130078</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>01:32</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1891,43 +1891,43 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>七部邓懿娜</t>
+          <t>二部徐超</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>会员本金,银行卡</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>销-销售7部</t>
+          <t>销-销售2部</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
+      <c r="K32" t="n">
         <v>0</v>
       </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>20210130064</v>
+        <v>20210130007</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>00:29</t>
+          <t>20:07</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1937,23 +1937,23 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>V25</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>二部安祖培</t>
+          <t>国际孙启鹏</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>挂账</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>销-销售2部</t>
+          <t>国际部</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -1962,18 +1962,18 @@
       <c r="J33" t="n">
         <v>0</v>
       </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
+      <c r="K33" t="n">
         <v>0</v>
       </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>20210130049</v>
+        <v>20210130009</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>22:22</t>
+          <t>00:54</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,43 +1983,43 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>V01</t>
+          <t>888</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>国际杨菊</t>
+          <t>运营谢显松</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>国际部</t>
+          <t>运营部</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K34" t="n">
+        <v>100</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>20210130043</v>
+        <v>20210130004</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>22:05</t>
+          <t>23:29</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2029,43 +2029,43 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>V20</t>
+          <t>V17</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>六部许鹏</t>
+          <t>黄丽</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>挂账</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>销-销售6部</t>
+          <t>会员中心</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K35" t="n">
+        <v>100</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>20210130078</v>
+        <v>20210130043</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>01:32</t>
+          <t>22:05</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2075,23 +2075,23 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>V20</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>二部徐超</t>
+          <t>六部许鹏</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>会员本金,银行卡</t>
+          <t>挂账</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>销-销售2部</t>
+          <t>销-销售6部</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -2100,18 +2100,18 @@
       <c r="J36" t="n">
         <v>0</v>
       </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
+      <c r="K36" t="n">
         <v>0</v>
       </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>20210130009</v>
+        <v>20210130064</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>00:54</t>
+          <t>00:29</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2121,43 +2121,43 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>666</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>运营谢显松</t>
+          <t>二部安祖培</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>运营部</t>
+          <t>销-销售2部</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>25</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>20210130032</v>
+        <v>20210130049</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>01:01</t>
+          <t>22:22</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,43 +2167,43 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>V16</t>
+          <t>V01</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>陶汝维</t>
+          <t>国际杨菊</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>总-行政</t>
+          <t>国际部</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>25</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>20210130020</v>
+        <v>20210130071</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>23:28</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2213,43 +2213,43 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>K03</t>
+          <t>V10</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>八部任凯</t>
+          <t>七部邓懿娜</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>销-销售8部</t>
+          <t>销-销售7部</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J39" t="n">
-        <v>25</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20210130074</v>
+        <v>20210130037</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>01:08</t>
+          <t>00:24</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2259,43 +2259,43 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>空降2</t>
+          <t>V03</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>一部管毓寿</t>
+          <t>国际孙启鹏</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>挂账</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>销-销售1部</t>
+          <t>国际部</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K40" t="n">
+        <v>100</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>20210130007</v>
+        <v>20210130074</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>20:07</t>
+          <t>01:08</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2305,13 +2305,13 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>V25</t>
+          <t>空降2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>国际孙启鹏</t>
+          <t>一部管毓寿</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2321,27 +2321,27 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>国际部</t>
+          <t>销-销售1部</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
+      <c r="K41" t="n">
         <v>0</v>
       </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>20210130037</v>
+        <v>20210130020</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>00:24</t>
+          <t>23:28</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2351,13 +2351,13 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>V03</t>
+          <t>K03</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>国际孙启鹏</t>
+          <t>八部任凯</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>国际部</t>
+          <t>销-销售8部</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -2376,18 +2376,18 @@
       <c r="J42" t="n">
         <v>25</v>
       </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
+      <c r="K42" t="n">
         <v>100</v>
       </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>20210130041</v>
+        <v>20210130032</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>23:42</t>
+          <t>01:01</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2397,13 +2397,13 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>K22</t>
+          <t>V16</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>龙线飞</t>
+          <t>陶汝维</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2413,27 +2413,27 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>资-气氛1部</t>
+          <t>总-行政</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>50</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>200</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K43" t="n">
+        <v>100</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>20210130004</v>
+        <v>20210130041</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>23:29</t>
+          <t>23:42</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2443,43 +2443,43 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>V17</t>
+          <t>K22</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>黄丽</t>
+          <t>龙线飞</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>会员中心</t>
+          <t>资-气氛1部</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>25</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>100</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="K44" t="n">
+        <v>200</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>20210130032</v>
+        <v>20210130041</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>01:01</t>
+          <t>23:42</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2489,13 +2489,13 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>V16</t>
+          <t>K22</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>陶汝维</t>
+          <t>龙线飞</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2505,27 +2505,27 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>总-行政</t>
+          <t>资-气氛1部</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>25</v>
-      </c>
-      <c r="K45" t="n">
-        <v>100</v>
-      </c>
-      <c r="L45" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>20210130037</v>
+        <v>20210130071</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>00:24</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2535,43 +2535,43 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>V03</t>
+          <t>V10</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>国际孙启鹏</t>
+          <t>七部邓懿娜</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>国际部</t>
+          <t>销-销售7部</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J46" t="n">
-        <v>25</v>
-      </c>
-      <c r="K46" t="n">
-        <v>100</v>
-      </c>
-      <c r="L46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>20210130078</v>
+        <v>20210130004</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>01:32</t>
+          <t>23:29</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2581,43 +2581,43 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>V17</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>二部徐超</t>
+          <t>黄丽</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>会员本金,银行卡</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>销-销售2部</t>
+          <t>会员中心</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>20210130007</v>
+        <v>20210130049</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>20:07</t>
+          <t>22:22</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2627,18 +2627,18 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>V25</t>
+          <t>V01</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>国际孙启鹏</t>
+          <t>国际杨菊</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>挂账</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2652,18 +2652,18 @@
       <c r="J48" t="n">
         <v>0</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
         <v>0</v>
       </c>
-      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>20210130009</v>
+        <v>20210130043</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>00:54</t>
+          <t>22:05</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2673,43 +2673,43 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>V20</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>运营谢显松</t>
+          <t>六部许鹏</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>挂账</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>运营部</t>
+          <t>销-销售6部</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>25</v>
-      </c>
-      <c r="K49" t="n">
-        <v>100</v>
-      </c>
-      <c r="L49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>20210130004</v>
+        <v>20210130078</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>23:29</t>
+          <t>01:32</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2719,43 +2719,43 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>V17</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>黄丽</t>
+          <t>二部徐超</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>会员本金,银行卡</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>会员中心</t>
+          <t>销-销售2部</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>25</v>
-      </c>
-      <c r="K50" t="n">
-        <v>100</v>
-      </c>
-      <c r="L50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>20210130043</v>
+        <v>20210130064</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>22:05</t>
+          <t>00:29</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2765,23 +2765,23 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>V20</t>
+          <t>666</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>六部许鹏</t>
+          <t>二部安祖培</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>挂账</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>销-销售6部</t>
+          <t>销-销售2部</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -2790,18 +2790,18 @@
       <c r="J51" t="n">
         <v>0</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
         <v>0</v>
       </c>
-      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>20210130020</v>
+        <v>20210130032</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>23:28</t>
+          <t>01:01</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2811,13 +2811,13 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>K03</t>
+          <t>V16</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>八部任凯</t>
+          <t>陶汝维</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>销-销售8部</t>
+          <t>总-行政</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -2836,18 +2836,18 @@
       <c r="J52" t="n">
         <v>25</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
         <v>100</v>
       </c>
-      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>20210130049</v>
+        <v>20210130020</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>22:22</t>
+          <t>23:28</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2857,43 +2857,43 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>V01</t>
+          <t>K03</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>国际杨菊</t>
+          <t>八部任凯</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>国际部</t>
+          <t>销-销售8部</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>20210130071</v>
+        <v>20210130074</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>01:08</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2903,23 +2903,23 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>空降2</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>七部邓懿娜</t>
+          <t>一部管毓寿</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>挂账</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>销-销售7部</t>
+          <t>销-销售1部</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -2928,18 +2928,18 @@
       <c r="J54" t="n">
         <v>0</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
         <v>0</v>
       </c>
-      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>20210130064</v>
+        <v>20210130007</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>00:29</t>
+          <t>20:07</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2949,23 +2949,23 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>V25</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>二部安祖培</t>
+          <t>国际孙启鹏</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>挂账</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>销-销售2部</t>
+          <t>国际部</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -2974,18 +2974,18 @@
       <c r="J55" t="n">
         <v>0</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
         <v>0</v>
       </c>
-      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>20210130041</v>
+        <v>20210130037</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>23:42</t>
+          <t>00:24</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2995,13 +2995,13 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>K22</t>
+          <t>V03</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>龙线飞</t>
+          <t>国际孙启鹏</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3011,27 +3011,27 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>资-气氛1部</t>
+          <t>国际部</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>50</v>
-      </c>
-      <c r="K56" t="n">
-        <v>200</v>
-      </c>
-      <c r="L56" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>20210130074</v>
+        <v>20210130009</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>01:08</t>
+          <t>00:54</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3041,35 +3041,35 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>空降2</t>
+          <t>888</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>一部管毓寿</t>
+          <t>运营谢显松</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>挂账</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>销-销售1部</t>
+          <t>运营部</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>00:42</t>
+          <t>22:44</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3291,13 +3291,13 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J62" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="K62" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L62" t="inlineStr"/>
     </row>
@@ -3307,7 +3307,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>21:38</t>
+          <t>23:50</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3337,15 +3337,15 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>23:50</t>
+          <t>00:42</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3383,15 +3383,15 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J64" t="n">
-        <v>75</v>
-      </c>
-      <c r="K64" t="n">
-        <v>300</v>
-      </c>
-      <c r="L64" t="inlineStr"/>
+        <v>150</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>600</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>22:44</t>
+          <t>21:38</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3429,14 +3429,14 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3445,7 +3445,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>21:38</t>
+          <t>00:42</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3475,15 +3475,15 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="K66" t="n">
+        <v>600</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>22:44</t>
+          <t>23:50</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3521,13 +3521,13 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J67" t="n">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="K67" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L67" t="inlineStr"/>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>00:42</t>
+          <t>21:38</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3567,15 +3567,15 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>150</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3583,7 +3583,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>23:50</t>
+          <t>22:44</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3613,14 +3613,14 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J69" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="70">
@@ -3855,11 +3855,11 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>20210204017</v>
+        <v>20210204014</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>01:15</t>
+          <t>22:56</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3869,43 +3869,43 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>V05</t>
+          <t>V07</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>一部赵双</t>
+          <t>自来客</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>销-销售1部</t>
+          <t>自来客</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>20210204067</v>
+        <v>20210204042</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>00:28</t>
+          <t>23:03</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3915,13 +3915,13 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>纪梵希</t>
+          <t>V17</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>九部赵芸芸</t>
+          <t>七部王涛</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3931,27 +3931,27 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>销-销售9部</t>
+          <t>销-销售7部</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>20210204017</v>
+        <v>20210204023</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>23:52</t>
+          <t>23:09</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3961,43 +3961,43 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>V05</t>
+          <t>V19</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>一部赵双</t>
+          <t>徐荣凯</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>销-销售1部</t>
+          <t>独立团</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>20210204067</v>
+        <v>20210204061</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>00:42</t>
+          <t>00:01</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4007,13 +4007,13 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>纪梵希</t>
+          <t>V21</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>九部赵芸芸</t>
+          <t>龙线飞</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>销-销售9部</t>
+          <t>资-气氛1部</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -4039,11 +4039,11 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>20210204032</v>
+        <v>20210204047</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>23:51</t>
+          <t>23:38</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4053,13 +4053,13 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>K05</t>
+          <t>V01</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>二部翟培达</t>
+          <t>陶汝维</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>销-销售2部</t>
+          <t>总-行政</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -4085,11 +4085,11 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>20210204067</v>
+        <v>20210204017</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>01:02</t>
+          <t>23:52</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4099,43 +4099,43 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>纪梵希</t>
+          <t>V05</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>九部赵芸芸</t>
+          <t>一部赵双</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>销-销售9部</t>
+          <t>销-销售1部</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>20210204047</v>
+        <v>20210204032</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>23:38</t>
+          <t>23:51</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4145,13 +4145,13 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>V01</t>
+          <t>K05</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>陶汝维</t>
+          <t>二部翟培达</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>总-行政</t>
+          <t>销-销售2部</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -4177,11 +4177,11 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>20210204014</v>
+        <v>20210204067</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>22:56</t>
+          <t>00:42</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4191,13 +4191,13 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>V07</t>
+          <t>纪梵希</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>自来客</t>
+          <t>九部赵芸芸</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -4207,7 +4207,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>自来客</t>
+          <t>销-销售9部</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -4223,11 +4223,11 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>20210204023</v>
+        <v>20210204067</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>23:09</t>
+          <t>00:28</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4237,13 +4237,13 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>V19</t>
+          <t>纪梵希</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>徐荣凯</t>
+          <t>九部赵芸芸</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4253,27 +4253,27 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>独立团</t>
+          <t>销-销售9部</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>20210204042</v>
+        <v>20210204017</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>23:03</t>
+          <t>01:15</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4283,43 +4283,43 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>V17</t>
+          <t>V05</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>七部王涛</t>
+          <t>一部赵双</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>销-销售7部</t>
+          <t>销-销售1部</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>20210204061</v>
+        <v>20210204067</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>00:01</t>
+          <t>01:02</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4329,13 +4329,13 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>V21</t>
+          <t>纪梵希</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>龙线飞</t>
+          <t>九部赵芸芸</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>资-气氛1部</t>
+          <t>销-销售9部</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -4453,11 +4453,11 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>20210206022</v>
+        <v>20210206052</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>23:35</t>
+          <t>22:28</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4467,43 +4467,43 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>V12</t>
+          <t>V25</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>独立韩胜</t>
+          <t>八部罗豪</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>独-2部</t>
+          <t>销-销售8部</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>20210206053</v>
+        <v>20210206059</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>22:44</t>
+          <t>23:40</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>V20</t>
+          <t>V08</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4533,23 +4533,23 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>20210206003</v>
+        <v>20210206022</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>23:34</t>
+          <t>00:17</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4559,13 +4559,13 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>K15</t>
+          <t>V12</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>独立刘松</t>
+          <t>独立韩胜</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4575,27 +4575,27 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>独-1部</t>
+          <t>独-2部</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>20210206012</v>
+        <v>20210206022</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>01:15</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4605,43 +4605,43 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>香奈儿</t>
+          <t>V12</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>六部许鹏</t>
+          <t>独立韩胜</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>销-销售6部</t>
+          <t>独-2部</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>20210206022</v>
+        <v>20210206003</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>00:17</t>
+          <t>23:34</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4651,13 +4651,13 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>V12</t>
+          <t>K15</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>独立韩胜</t>
+          <t>独立刘松</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4667,27 +4667,27 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>独-2部</t>
+          <t>独-1部</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>20210206059</v>
+        <v>20210206053</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>23:40</t>
+          <t>22:44</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4697,7 +4697,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>V08</t>
+          <t>V20</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4717,23 +4717,23 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>20210206052</v>
+        <v>20210206022</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>22:28</t>
+          <t>23:35</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4743,43 +4743,43 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>V25</t>
+          <t>V12</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>八部罗豪</t>
+          <t>独立韩胜</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>销-销售8部</t>
+          <t>独-2部</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>20210206022</v>
+        <v>20210206012</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>00:30</t>
+          <t>01:15</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4789,34 +4789,34 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>V12</t>
+          <t>香奈儿</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>独立韩胜</t>
+          <t>六部许鹏</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>独-2部</t>
+          <t>销-销售6部</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96">
@@ -5047,6 +5047,466 @@
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>200</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>20210208045</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>00:12</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>K27</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>尹成涛</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>礼宾部</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>25</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>20210208030</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>23:10</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>V02</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>二部钱兴松</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>销-销售2部</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>25</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>20210208027</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>23:41</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>V12</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>市场部李丽</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>25</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>20210208027</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>23:29</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>V12</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>市场部李丽</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>25</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>20210208012</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>23:37</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>K10</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>尹成涛</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>礼宾部</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>3</v>
+      </c>
+      <c r="J105" t="n">
+        <v>75</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>20210208026</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>00:02</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>V09</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>传送-周意强</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>运营部</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>5</v>
+      </c>
+      <c r="J106" t="n">
+        <v>125</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>20210208024</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>01:40</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>V01</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>八部罗豪</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>销-销售8部</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>25</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>20210208045</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>00:15</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>K27</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>尹成涛</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>礼宾部</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>25</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>20210208027</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>23:15</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>V12</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>市场部李丽</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>25</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>20210208064</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>00:31</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>K19</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>七部李忠语</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>销-销售7部</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>25</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
